--- a/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_xgb_o.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_xgb_o.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.694484615325928</v>
+        <v>7.495611000061035</v>
       </c>
       <c r="C2">
-        <v>0.02135345442898506</v>
+        <v>0.6437865733923486</v>
       </c>
       <c r="D2">
-        <v>0.03001008033752441</v>
+        <v>0.06152234077453613</v>
       </c>
       <c r="E2">
-        <v>0.002803283223251042</v>
+        <v>0.01180488876274995</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.51123309135437</v>
+        <v>13.01791758537292</v>
       </c>
       <c r="C3">
-        <v>0.2279393574765623</v>
+        <v>0.3634231134033235</v>
       </c>
       <c r="D3">
-        <v>0.03354053497314453</v>
+        <v>0.05893096923828125</v>
       </c>
       <c r="E3">
-        <v>0.004623185966499138</v>
+        <v>0.00346585901452636</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.10581746101379</v>
+        <v>23.54971475601196</v>
       </c>
       <c r="C4">
-        <v>0.3483307263212161</v>
+        <v>2.272423759679255</v>
       </c>
       <c r="D4">
-        <v>0.04071812629699707</v>
+        <v>0.07504281997680665</v>
       </c>
       <c r="E4">
-        <v>0.002304719764655495</v>
+        <v>0.01130680125989431</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.610310888290405</v>
+        <v>6.143430709838867</v>
       </c>
       <c r="C5">
-        <v>0.02978466209209704</v>
+        <v>0.6661996459357201</v>
       </c>
       <c r="D5">
-        <v>0.03557901382446289</v>
+        <v>0.05867838859558105</v>
       </c>
       <c r="E5">
-        <v>0.002155534488240356</v>
+        <v>0.01518480319975704</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.749201726913452</v>
+        <v>11.92798256874084</v>
       </c>
       <c r="C6">
-        <v>0.07515659967943078</v>
+        <v>1.04024187491282</v>
       </c>
       <c r="D6">
-        <v>0.04338979721069336</v>
+        <v>0.06821670532226562</v>
       </c>
       <c r="E6">
-        <v>0.01406418160495963</v>
+        <v>0.0108819357426099</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.35577745437622</v>
+        <v>22.64119582176209</v>
       </c>
       <c r="C7">
-        <v>0.1576259259615643</v>
+        <v>1.352148708433227</v>
       </c>
       <c r="D7">
-        <v>0.05283031463623047</v>
+        <v>0.06417608261108398</v>
       </c>
       <c r="E7">
-        <v>0.01472093904810618</v>
+        <v>0.001483188938604133</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.510656833648682</v>
+        <v>5.75488166809082</v>
       </c>
       <c r="C8">
-        <v>0.03649340596920753</v>
+        <v>0.6053441998137126</v>
       </c>
       <c r="D8">
-        <v>0.03240880966186523</v>
+        <v>0.0534980297088623</v>
       </c>
       <c r="E8">
-        <v>0.0009039262618201415</v>
+        <v>0.003257513215529097</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.51693320274353</v>
+        <v>10.61374025344849</v>
       </c>
       <c r="C9">
-        <v>0.3333813419721869</v>
+        <v>0.2636226512257844</v>
       </c>
       <c r="D9">
-        <v>0.03853130340576172</v>
+        <v>0.05528750419616699</v>
       </c>
       <c r="E9">
-        <v>0.004529537897164202</v>
+        <v>0.0004788541478299605</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.49228796958923</v>
+        <v>21.43215599060058</v>
       </c>
       <c r="C10">
-        <v>0.223059331587651</v>
+        <v>0.2197585694530167</v>
       </c>
       <c r="D10">
-        <v>0.05079417228698731</v>
+        <v>0.06395606994628907</v>
       </c>
       <c r="E10">
-        <v>0.0173078784048555</v>
+        <v>0.005625205945233751</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.48548731803894</v>
+        <v>8.382453346252442</v>
       </c>
       <c r="C11">
-        <v>0.1056427100465779</v>
+        <v>0.239947393128229</v>
       </c>
       <c r="D11">
-        <v>0.03741731643676758</v>
+        <v>0.05416145324707031</v>
       </c>
       <c r="E11">
-        <v>0.002144686753260322</v>
+        <v>0.0003210784907930688</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.63033857345581</v>
+        <v>16.49142088890076</v>
       </c>
       <c r="C12">
-        <v>0.1956817477841579</v>
+        <v>0.2374449500623466</v>
       </c>
       <c r="D12">
-        <v>0.03929734230041504</v>
+        <v>0.06090860366821289</v>
       </c>
       <c r="E12">
-        <v>0.002168040845879794</v>
+        <v>0.002062014570280882</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.86020593643189</v>
+        <v>33.31783943176269</v>
       </c>
       <c r="C13">
-        <v>0.5921867966425698</v>
+        <v>0.3940374474117807</v>
       </c>
       <c r="D13">
-        <v>0.0516869068145752</v>
+        <v>0.07319364547729493</v>
       </c>
       <c r="E13">
-        <v>0.006313689426220065</v>
+        <v>0.001489183573553103</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.800281000137329</v>
+        <v>8.290132904052735</v>
       </c>
       <c r="C14">
-        <v>0.2444552425948383</v>
+        <v>0.2269555376394287</v>
       </c>
       <c r="D14">
-        <v>0.03928804397583008</v>
+        <v>0.04819178581237793</v>
       </c>
       <c r="E14">
-        <v>0.003837477676464266</v>
+        <v>0.01517730254636029</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.42356414794922</v>
+        <v>16.52522935867309</v>
       </c>
       <c r="C15">
-        <v>0.2325612258729294</v>
+        <v>0.2582188404108217</v>
       </c>
       <c r="D15">
-        <v>0.03980464935302734</v>
+        <v>0.06024651527404785</v>
       </c>
       <c r="E15">
-        <v>0.008324389445956183</v>
+        <v>0.0004815068096543575</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.59210295677185</v>
+        <v>32.99541459083557</v>
       </c>
       <c r="C16">
-        <v>0.3476110652727527</v>
+        <v>0.3573856122220114</v>
       </c>
       <c r="D16">
-        <v>0.05051288604736328</v>
+        <v>0.07322468757629394</v>
       </c>
       <c r="E16">
-        <v>0.007546325653956542</v>
+        <v>0.001147680768016171</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.60635666847229</v>
+        <v>8.437469291687012</v>
       </c>
       <c r="C17">
-        <v>0.1409715154732267</v>
+        <v>0.1252284324714693</v>
       </c>
       <c r="D17">
-        <v>0.03429880142211914</v>
+        <v>0.05537505149841308</v>
       </c>
       <c r="E17">
-        <v>0.0010743227377155</v>
+        <v>0.003324957967425599</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.33572020530701</v>
+        <v>16.70249862670898</v>
       </c>
       <c r="C18">
-        <v>0.2934260508287583</v>
+        <v>0.2026129181695906</v>
       </c>
       <c r="D18">
-        <v>0.04020624160766602</v>
+        <v>0.06005606651306152</v>
       </c>
       <c r="E18">
-        <v>0.003206621059712351</v>
+        <v>0.001030005178408066</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.93691453933716</v>
+        <v>29.87544288635254</v>
       </c>
       <c r="C19">
-        <v>0.5641964886158451</v>
+        <v>0.7696282881572348</v>
       </c>
       <c r="D19">
-        <v>0.03498811721801758</v>
+        <v>0.05834693908691406</v>
       </c>
       <c r="E19">
-        <v>0.006781619589105407</v>
+        <v>0.009501457327306957</v>
       </c>
       <c r="F19">
         <v>2</v>
